--- a/docs/Grand National 2023 - Change Log.xlsx
+++ b/docs/Grand National 2023 - Change Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9f94956210c070/Dev/Python/Projects/Web/Dev/grand-national-2023/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A1EC8F27-E9BF-4E37-88BE-2FF19B48828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C67B7AA8-1A4E-4A7E-9BF4-355AB25B51FB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{A1EC8F27-E9BF-4E37-88BE-2FF19B48828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{038E8902-B0E6-4745-8619-D770F24ED8AB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B96163A-B401-4563-A93F-582AF6531416}"/>
   </bookViews>
@@ -594,7 +594,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="40" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.54296875" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.26953125" style="5" customWidth="1"/>
